--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>0.183397897302</v>
+        <v>0.02151924642311111</v>
       </c>
       <c r="R2">
-        <v>1.650581075718</v>
+        <v>0.193673217808</v>
       </c>
       <c r="S2">
-        <v>0.002381549190551516</v>
+        <v>0.000708049526106279</v>
       </c>
       <c r="T2">
-        <v>0.002381549190551516</v>
+        <v>0.0007080495261062789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H3">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I3">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J3">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>0.211483499943</v>
+        <v>0.02806699908444445</v>
       </c>
       <c r="R3">
-        <v>1.903351499487</v>
+        <v>0.25260299176</v>
       </c>
       <c r="S3">
-        <v>0.002746260265322904</v>
+        <v>0.0009234907677632874</v>
       </c>
       <c r="T3">
-        <v>0.002746260265322904</v>
+        <v>0.0009234907677632873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H4">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I4">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J4">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>15.66377277057867</v>
+        <v>8.230161801879554</v>
       </c>
       <c r="R4">
-        <v>140.973954935208</v>
+        <v>74.07145621691599</v>
       </c>
       <c r="S4">
-        <v>0.2034049785277865</v>
+        <v>0.2707976872898477</v>
       </c>
       <c r="T4">
-        <v>0.2034049785277865</v>
+        <v>0.2707976872898477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H5">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I5">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J5">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>18.06252708764133</v>
+        <v>10.73438814800222</v>
       </c>
       <c r="R5">
-        <v>162.562743788772</v>
+        <v>96.60949333201999</v>
       </c>
       <c r="S5">
-        <v>0.2345544708947867</v>
+        <v>0.3531944516919103</v>
       </c>
       <c r="T5">
-        <v>0.2345544708947867</v>
+        <v>0.3531944516919103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G6">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H6">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I6">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J6">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N6">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q6">
-        <v>0.01016639635288889</v>
+        <v>4.937846972530555</v>
       </c>
       <c r="R6">
-        <v>0.09149756717599999</v>
+        <v>44.440622752775</v>
       </c>
       <c r="S6">
-        <v>0.0001320177240918911</v>
+        <v>0.1624703830302679</v>
       </c>
       <c r="T6">
-        <v>0.0001320177240918911</v>
+        <v>0.1624703830302678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G7">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H7">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I7">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J7">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,152 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N7">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O7">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P7">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q7">
-        <v>0.01172328098711111</v>
+        <v>6.440306678597223</v>
       </c>
       <c r="R7">
-        <v>0.105509528884</v>
+        <v>57.962760107375</v>
       </c>
       <c r="S7">
-        <v>0.0001522349533783775</v>
+        <v>0.2119059376941046</v>
       </c>
       <c r="T7">
-        <v>0.0001522349533783775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>70.435768</v>
-      </c>
-      <c r="H8">
-        <v>211.307304</v>
-      </c>
-      <c r="I8">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J8">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.2826406666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.8479220000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.4644379263787216</v>
-      </c>
-      <c r="P8">
-        <v>0.4644379263787216</v>
-      </c>
-      <c r="Q8">
-        <v>19.90801242469867</v>
-      </c>
-      <c r="R8">
-        <v>179.172111822288</v>
-      </c>
-      <c r="S8">
-        <v>0.2585193809362917</v>
-      </c>
-      <c r="T8">
-        <v>0.2585193809362917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>70.435768</v>
-      </c>
-      <c r="H9">
-        <v>211.307304</v>
-      </c>
-      <c r="I9">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J9">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.3259243333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.977773</v>
-      </c>
-      <c r="O9">
-        <v>0.5355620736212784</v>
-      </c>
-      <c r="P9">
-        <v>0.5355620736212785</v>
-      </c>
-      <c r="Q9">
-        <v>22.95673072822133</v>
-      </c>
-      <c r="R9">
-        <v>206.610576553992</v>
-      </c>
-      <c r="S9">
-        <v>0.2981091075077904</v>
-      </c>
-      <c r="T9">
-        <v>0.2981091075077905</v>
+        <v>0.2119059376941046</v>
       </c>
     </row>
   </sheetData>
